--- a/all-results.xlsx
+++ b/all-results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\PhD\lab\projects\lm-diagnostics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DB5526-F88B-495C-85B5-407AC53A8B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9B00FFE-50C0-4C51-B301-26AFC7126B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -233,9 +234,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -267,6 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,77 +581,77 @@
     </row>
     <row r="2" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="R4" t="s">
@@ -670,11 +671,11 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>52.9</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
         <v>27.3</v>
       </c>
       <c r="F5">
@@ -686,28 +687,28 @@
       <c r="I5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>73.5</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>44.1</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <v>75</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>31.8</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <v>100</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>94</v>
       </c>
-      <c r="P5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11">
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
         <v>0</v>
       </c>
       <c r="R5">
@@ -727,11 +728,11 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>52.9</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15">
         <v>37.5</v>
       </c>
       <c r="F6" s="2">
@@ -743,28 +744,28 @@
       <c r="I6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>79.400000000000006</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>58.8</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>86.4</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>43.2</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>100</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="17">
         <v>100</v>
       </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11">
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
         <v>0</v>
       </c>
       <c r="R6" s="2">
@@ -784,14 +785,14 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>50</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15">
         <v>35</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="15"/>
       <c r="F7">
         <v>94</v>
       </c>
@@ -801,28 +802,28 @@
       <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>26.5</v>
       </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
         <v>59</v>
       </c>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
         <v>66.7</v>
       </c>
-      <c r="O7" s="11">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
         <v>33.299999999999997</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>0</v>
       </c>
       <c r="R7">
@@ -842,14 +843,14 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>64.7</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16">
         <v>46.6</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
       <c r="F8">
         <v>88</v>
       </c>
@@ -859,28 +860,28 @@
       <c r="I8" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>29.4</v>
       </c>
-      <c r="K8" s="18">
-        <v>0</v>
-      </c>
-      <c r="L8" s="10">
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
         <v>68.2</v>
       </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10">
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
         <v>66.7</v>
       </c>
-      <c r="O8" s="11">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
         <v>33.299999999999997</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>0</v>
       </c>
       <c r="R8">
@@ -900,14 +901,14 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>35.299999999999997</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
         <v>20.100000000000001</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="15"/>
       <c r="F9">
         <v>94.4</v>
       </c>
@@ -917,28 +918,28 @@
       <c r="I9" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>67.599999999999994</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>38.200000000000003</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>63.6</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>18.2</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>100</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="10">
         <v>94</v>
       </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
         <v>0</v>
       </c>
       <c r="R9">
@@ -958,14 +959,14 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>29.4</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15"/>
       <c r="F10">
         <v>50</v>
       </c>
@@ -975,28 +976,28 @@
       <c r="I10" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <v>18</v>
       </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13">
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
         <v>57</v>
       </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13">
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
         <v>61.1</v>
       </c>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
-      <c r="P10" s="21">
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
         <v>38.9</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="21">
         <v>0</v>
       </c>
       <c r="R10">
@@ -1017,20 +1018,20 @@
     <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:22" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="4"/>
     </row>
   </sheetData>

--- a/all-results.xlsx
+++ b/all-results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\PhD\lab\projects\lm-diagnostics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9B00FFE-50C0-4C51-B301-26AFC7126B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B234E7-1BAE-4EF0-B238-55DFA4469477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
   <si>
     <t>cprag</t>
   </si>
@@ -97,6 +97,30 @@
   </si>
   <si>
     <t>negsimp w/.01 thresh</t>
+  </si>
+  <si>
+    <t>ALBERT-large-v2</t>
+  </si>
+  <si>
+    <t>ALBERT-base-v1</t>
+  </si>
+  <si>
+    <t>ALBERT-large-v1</t>
+  </si>
+  <si>
+    <t>ALBERT-xlarge-v1</t>
+  </si>
+  <si>
+    <t>ALBERT-xxlarge-v1</t>
+  </si>
+  <si>
+    <t>ALBERT-base-v2</t>
+  </si>
+  <si>
+    <t>ALBERT-xlarge-v2</t>
+  </si>
+  <si>
+    <t>ALBERT-xxlarge-v2</t>
   </si>
 </sst>
 </file>
@@ -112,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -268,6 +298,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,20 +1057,20 @@
     <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:22" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="4"/>
     </row>
   </sheetData>
@@ -1041,4 +1080,904 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB084B15-49F7-49F5-ABC9-BFE6D4B4E305}">
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" customWidth="1"/>
+    <col min="22" max="22" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15">
+        <v>52.9</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
+        <v>27.3</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>43.8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9">
+        <v>73.5</v>
+      </c>
+      <c r="K5" s="10">
+        <v>44.1</v>
+      </c>
+      <c r="L5" s="9">
+        <v>75</v>
+      </c>
+      <c r="M5" s="10">
+        <v>31.8</v>
+      </c>
+      <c r="N5" s="9">
+        <v>100</v>
+      </c>
+      <c r="O5" s="10">
+        <v>94</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>62.5</v>
+      </c>
+      <c r="S5">
+        <v>87.5</v>
+      </c>
+      <c r="T5">
+        <v>75</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15">
+        <v>52.9</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15">
+        <v>37.5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>31.3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="11">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="K6" s="10">
+        <v>58.8</v>
+      </c>
+      <c r="L6" s="11">
+        <v>86.4</v>
+      </c>
+      <c r="M6" s="10">
+        <v>43.2</v>
+      </c>
+      <c r="N6" s="11">
+        <v>100</v>
+      </c>
+      <c r="O6" s="17">
+        <v>100</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>75</v>
+      </c>
+      <c r="S6" s="2">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>75</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
+        <v>50</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15">
+        <v>35</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7">
+        <v>94</v>
+      </c>
+      <c r="G7" s="2">
+        <v>56.3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9">
+        <v>26.5</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>59</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>66.7</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>37.5</v>
+      </c>
+      <c r="S7">
+        <v>75</v>
+      </c>
+      <c r="T7">
+        <v>75</v>
+      </c>
+      <c r="U7">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16">
+        <v>64.7</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16">
+        <v>46.6</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8">
+        <v>88</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9">
+        <v>29.4</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>68.2</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>66.7</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>25</v>
+      </c>
+      <c r="S8">
+        <v>75</v>
+      </c>
+      <c r="T8">
+        <v>75</v>
+      </c>
+      <c r="U8">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9">
+        <v>94.4</v>
+      </c>
+      <c r="G9">
+        <v>37.5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="9">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="K9" s="10">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="L9" s="9">
+        <v>63.6</v>
+      </c>
+      <c r="M9" s="10">
+        <v>18.2</v>
+      </c>
+      <c r="N9" s="9">
+        <v>100</v>
+      </c>
+      <c r="O9" s="10">
+        <v>94</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>62.5</v>
+      </c>
+      <c r="S9">
+        <v>62.5</v>
+      </c>
+      <c r="T9" s="2">
+        <v>87.5</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="25">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24">
+        <v>72.2</v>
+      </c>
+      <c r="G10" s="25">
+        <v>12.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="26">
+        <v>5.8</v>
+      </c>
+      <c r="K10" s="27">
+        <v>0</v>
+      </c>
+      <c r="L10" s="26">
+        <v>43.2</v>
+      </c>
+      <c r="M10" s="27">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26">
+        <v>72.2</v>
+      </c>
+      <c r="O10" s="27">
+        <v>0</v>
+      </c>
+      <c r="P10" s="26">
+        <v>22.2</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>0</v>
+      </c>
+      <c r="R10" s="24">
+        <v>50</v>
+      </c>
+      <c r="S10" s="24">
+        <v>25</v>
+      </c>
+      <c r="T10" s="24">
+        <v>62.5</v>
+      </c>
+      <c r="U10" s="24">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="25">
+        <v>20.6</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="24">
+        <v>72.2</v>
+      </c>
+      <c r="G11" s="25">
+        <v>18.8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="26">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K11" s="27">
+        <v>0</v>
+      </c>
+      <c r="L11" s="26">
+        <v>54.5</v>
+      </c>
+      <c r="M11" s="27">
+        <v>0</v>
+      </c>
+      <c r="N11" s="26">
+        <v>72.2</v>
+      </c>
+      <c r="O11" s="27">
+        <v>0</v>
+      </c>
+      <c r="P11" s="26">
+        <v>27.8</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>0</v>
+      </c>
+      <c r="R11" s="24">
+        <v>25</v>
+      </c>
+      <c r="S11" s="24">
+        <v>12.5</v>
+      </c>
+      <c r="T11" s="24">
+        <v>75</v>
+      </c>
+      <c r="U11" s="24">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="25">
+        <v>32.4</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24">
+        <v>11.1</v>
+      </c>
+      <c r="G12" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="26">
+        <v>14.7</v>
+      </c>
+      <c r="K12" s="27">
+        <v>0</v>
+      </c>
+      <c r="L12" s="26">
+        <v>52.3</v>
+      </c>
+      <c r="M12" s="27">
+        <v>0</v>
+      </c>
+      <c r="N12" s="26">
+        <v>58.3</v>
+      </c>
+      <c r="O12" s="27">
+        <v>0</v>
+      </c>
+      <c r="P12" s="26">
+        <v>44.4</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>0</v>
+      </c>
+      <c r="R12" s="24">
+        <v>37.5</v>
+      </c>
+      <c r="S12" s="24">
+        <v>25</v>
+      </c>
+      <c r="T12" s="24">
+        <v>75</v>
+      </c>
+      <c r="U12" s="24">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="25">
+        <v>47.1</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25">
+        <v>11.3</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24">
+        <v>88.9</v>
+      </c>
+      <c r="G13" s="25">
+        <v>43.8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="26">
+        <v>29.4</v>
+      </c>
+      <c r="K13" s="27">
+        <v>0</v>
+      </c>
+      <c r="L13" s="26">
+        <v>45.5</v>
+      </c>
+      <c r="M13" s="27">
+        <v>0</v>
+      </c>
+      <c r="N13" s="26">
+        <v>94.4</v>
+      </c>
+      <c r="O13" s="27">
+        <v>0</v>
+      </c>
+      <c r="P13" s="26">
+        <v>16.7</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>0</v>
+      </c>
+      <c r="R13" s="24">
+        <v>24</v>
+      </c>
+      <c r="S13" s="24">
+        <v>62.5</v>
+      </c>
+      <c r="T13" s="24">
+        <v>62.5</v>
+      </c>
+      <c r="U13" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24">
+        <v>22.2</v>
+      </c>
+      <c r="G14" s="24">
+        <v>6.3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="26">
+        <v>14.7</v>
+      </c>
+      <c r="K14" s="27">
+        <v>0</v>
+      </c>
+      <c r="L14" s="26">
+        <v>36.4</v>
+      </c>
+      <c r="M14" s="27">
+        <v>0</v>
+      </c>
+      <c r="N14" s="26">
+        <v>61.1</v>
+      </c>
+      <c r="O14" s="27">
+        <v>0</v>
+      </c>
+      <c r="P14" s="26">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>0</v>
+      </c>
+      <c r="R14" s="24">
+        <v>50</v>
+      </c>
+      <c r="S14" s="24">
+        <v>37.5</v>
+      </c>
+      <c r="T14" s="24">
+        <v>50</v>
+      </c>
+      <c r="U14" s="24">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="25">
+        <v>29.4</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="24">
+        <v>50</v>
+      </c>
+      <c r="G15" s="24">
+        <v>6.25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="28">
+        <v>18</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0</v>
+      </c>
+      <c r="L15" s="28">
+        <v>57</v>
+      </c>
+      <c r="M15" s="29">
+        <v>0</v>
+      </c>
+      <c r="N15" s="28">
+        <v>61.1</v>
+      </c>
+      <c r="O15" s="29">
+        <v>0</v>
+      </c>
+      <c r="P15" s="28">
+        <v>38.9</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>0</v>
+      </c>
+      <c r="R15" s="24">
+        <v>62.5</v>
+      </c>
+      <c r="S15" s="24">
+        <v>25</v>
+      </c>
+      <c r="T15" s="24">
+        <v>50</v>
+      </c>
+      <c r="U15" s="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="25">
+        <v>61.8</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25">
+        <v>12.5</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24">
+        <v>94.4</v>
+      </c>
+      <c r="G16" s="25">
+        <v>37.5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="26">
+        <v>26.5</v>
+      </c>
+      <c r="K16" s="27">
+        <v>0</v>
+      </c>
+      <c r="L16" s="26">
+        <v>37.5</v>
+      </c>
+      <c r="M16" s="27">
+        <v>0</v>
+      </c>
+      <c r="N16" s="26">
+        <v>88.9</v>
+      </c>
+      <c r="O16" s="27">
+        <v>0</v>
+      </c>
+      <c r="P16" s="26">
+        <v>11.1</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>0</v>
+      </c>
+      <c r="R16" s="24">
+        <v>25</v>
+      </c>
+      <c r="S16" s="24">
+        <v>62.5</v>
+      </c>
+      <c r="T16" s="24">
+        <v>37.5</v>
+      </c>
+      <c r="U16" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="25">
+        <v>61.8</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25">
+        <v>12.5</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24">
+        <v>94.4</v>
+      </c>
+      <c r="G17" s="25">
+        <v>37.5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="26">
+        <v>26.5</v>
+      </c>
+      <c r="K17" s="27">
+        <v>0</v>
+      </c>
+      <c r="L17" s="26">
+        <v>54.5</v>
+      </c>
+      <c r="M17" s="27">
+        <v>0</v>
+      </c>
+      <c r="N17" s="26">
+        <v>88.9</v>
+      </c>
+      <c r="O17" s="27">
+        <v>0</v>
+      </c>
+      <c r="P17" s="26">
+        <v>11.1</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>0</v>
+      </c>
+      <c r="R17" s="25">
+        <v>25</v>
+      </c>
+      <c r="S17" s="25">
+        <v>62.5</v>
+      </c>
+      <c r="T17" s="25">
+        <v>37.5</v>
+      </c>
+      <c r="U17" s="25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:21" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:L19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>